--- a/AllReceipts/TransReceipt_2_20240428.xlsx
+++ b/AllReceipts/TransReceipt_2_20240428.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XtiaN\source\repos\InventoryMate\AllReceipts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D5B5A1-DB9F-4A74-BF3D-6A13698901FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEA5C681-D7B2-4024-9F55-A6E2E0C93DF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{138C9C33-6AC7-4A12-822F-06C08AD34E03}"/>
   </bookViews>
@@ -664,7 +664,7 @@
         <v>5</v>
       </c>
       <c r="G7" s="18">
-        <v>45410.568252314813</v>
+        <v>45410.881458333337</v>
       </c>
       <c r="H7" s="17"/>
     </row>
@@ -741,7 +741,7 @@
         <v>9</v>
       </c>
       <c r="F13" s="8">
-        <v>15100</v>
+        <v>12400</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -800,7 +800,7 @@
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
@@ -851,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
